--- a/datos/tpm.xlsx
+++ b/datos/tpm.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R5ff2ec7db6a04793"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R8692c4a111564c5e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2601,6 +2601,14 @@
         <x:v>4.21428571428571</x:v>
       </x:c>
     </x:row>
+    <x:row r="304">
+      <x:c s="5" t="d">
+        <x:v>2022-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5.5</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells>
     <x:mergeCell ref="A1:D1"/>

--- a/datos/tpm.xlsx
+++ b/datos/tpm.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R0c3e2ad3fafe44f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R574d581999084016"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1377,6 +1377,38 @@
         <x:v>5.6304347826087</x:v>
       </x:c>
     </x:row>
+    <x:row r="151">
+      <x:c s="5" t="d">
+        <x:v>2022-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152">
+      <x:c s="5" t="d">
+        <x:v>2022-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.02272727272727</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153">
+      <x:c s="5" t="d">
+        <x:v>2022-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.8125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154">
+      <x:c s="5" t="d">
+        <x:v>2022-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9.42857142857143</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells>
     <x:mergeCell ref="A1:D1"/>
